--- a/ABC.xlsx
+++ b/ABC.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soyuk\OneDrive\デスクトップ\CppPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DBF0C-E6CB-4FFF-97AE-027F3796D63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35C838-A831-4DAF-BE55-0F7129999721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="14064" activeTab="1" xr2:uid="{63ECF8BA-A512-4823-9CE0-997FDC2C9C73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{63ECF8BA-A512-4823-9CE0-997FDC2C9C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -55,6 +55,14 @@
     <rPh sb="0" eb="1">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>符号なし整数（size_t）と符号あり整数（int）を比較すると、int は符号なし整数に変換されます。その結果、-1 は 巨大な正の整数 となり、比較が意図しない動作を引き起こします。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1134,14 +1142,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D64BF-0DF2-47D8-90FE-20C5B9EEFEFE}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ABC.xlsx
+++ b/ABC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soyuk\OneDrive\デスクトップ\CppPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC35C838-A831-4DAF-BE55-0F7129999721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99114DB4-6D55-4D6C-8D23-7277790B038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{63ECF8BA-A512-4823-9CE0-997FDC2C9C73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{63ECF8BA-A512-4823-9CE0-997FDC2C9C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="A" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +64,13 @@
   </si>
   <si>
     <t>符号なし整数（size_t）と符号あり整数（int）を比較すると、int は符号なし整数に変換されます。その結果、-1 は 巨大な正の整数 となり、比較が意図しない動作を引き起こします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッドのdfsを学</t>
+    <rPh sb="9" eb="10">
+      <t>マナブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1144,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D64BF-0DF2-47D8-90FE-20C5B9EEFEFE}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1194,4 +1202,33 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E8D51B-C83B-4865-8EE6-A58389755B32}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ABC.xlsx
+++ b/ABC.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soyuk\OneDrive\デスクトップ\CppPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99114DB4-6D55-4D6C-8D23-7277790B038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F89E62-36A4-46ED-83DE-8BE4A9092691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{63ECF8BA-A512-4823-9CE0-997FDC2C9C73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{63ECF8BA-A512-4823-9CE0-997FDC2C9C73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="B" sheetId="2" r:id="rId2"/>
-    <sheet name="A" sheetId="3" r:id="rId3"/>
+    <sheet name="タグ付け" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="B" sheetId="2" r:id="rId3"/>
+    <sheet name="A" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +72,87 @@
     <rPh sb="9" eb="10">
       <t>マナブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形探索</t>
+    <rPh sb="0" eb="4">
+      <t>センケイタンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累積和</t>
+    <rPh sb="0" eb="3">
+      <t>ルイセキワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二分探索</t>
+    <rPh sb="0" eb="4">
+      <t>ニブンタンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二個連続パターン
+・ひとつずらす</t>
+    <rPh sb="0" eb="4">
+      <t>ニコレンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッドパターン
+・vector&lt;vector&lt;int&gt;&gt;lenを別に作る</t>
+    <rPh sb="33" eb="34">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフパターン
+・vector&lt;int&gt;lenを別に作る</t>
+    <rPh sb="24" eb="25">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベクトルパターン
+・ベクトルでforループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>循環シフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックスをずらす
+(j - 1 + size) % size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -129,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,6 +537,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581C0DAF-E5F4-4EA6-BEBA-43FA31A4ED66}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808C257-3979-4107-AEC0-410E97DB1F1E}">
   <dimension ref="B2:F133"/>
   <sheetViews>
@@ -1148,7 +1309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D64BF-0DF2-47D8-90FE-20C5B9EEFEFE}">
   <dimension ref="B2:D6"/>
   <sheetViews>
@@ -1204,11 +1365,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E8D51B-C83B-4865-8EE6-A58389755B32}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/ABC.xlsx
+++ b/ABC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soyuk\OneDrive\デスクトップ\CppPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F89E62-36A4-46ED-83DE-8BE4A9092691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB07043-CDF4-4535-BB1B-D84311CE5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{63ECF8BA-A512-4823-9CE0-997FDC2C9C73}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -147,12 +147,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>グラフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>インデックスをずらす
-(j - 1 + size) % size</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グラフ</t>
+・(j - 1 + size) % size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表現方法
+・隣接行列
+・隣接行列</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウゲンホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>リンセツギョウレツ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>リンセツギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱連結
+・無向グラフの場合: 弱連結と連結は同じ意味になります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱連結
+・有向グラフの場合: 辺の向きを無視したときに、すべての頂点が1つの連結成分に含まれる場合、そのグラフは弱連結です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無向グラフが連結かどうか
+・任意の頂点を始点にDFS、BFS
+・連結成分が1つなら連結
+グラフが「連結」とは、どの点からどの点にも必ず線をたどっていけばつながる状態</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライディングウィンドウ法</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,25 +580,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581C0DAF-E5F4-4EA6-BEBA-43FA31A4ED66}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="27.69921875" customWidth="1"/>
     <col min="3" max="3" width="32.59765625" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="4" max="4" width="29.8984375" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" customWidth="1"/>
+    <col min="6" max="6" width="29.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -564,12 +608,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -580,12 +624,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -593,17 +637,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" ht="36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="108" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>21</v>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
